--- a/실무_엑셀_예제_파일/Chapter01/01-004.xlsx
+++ b/실무_엑셀_예제_파일/Chapter01/01-004.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oppadu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39EFEF1-7937-4A45-A038-AFD454CC7257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6D5E2D-DABA-466D-9D6E-DEBAA30A7A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2220" windowWidth="15192" windowHeight="10140" xr2:uid="{8967958C-42CB-472F-88FA-8B445C8345E6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8967958C-42CB-472F-88FA-8B445C8345E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -286,7 +277,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,20 +654,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5836E56C-6493-4B6E-9641-21BED6A309BF}">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" customWidth="1"/>
-    <col min="3" max="4" width="13.8984375" customWidth="1"/>
-    <col min="5" max="5" width="6.19921875" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" customWidth="1"/>
-    <col min="7" max="8" width="11.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="4" width="13.9140625" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.58203125" customWidth="1"/>
+    <col min="7" max="8" width="11.9140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:8" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:8" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
@@ -688,8 +681,8 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="2:8" ht="7.8" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="7.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
@@ -699,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -719,7 +712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -741,7 +734,7 @@
         <v>15964</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -763,7 +756,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
@@ -776,16 +769,16 @@
       <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="11" t="e">
-        <f>VLOOKUP($F8,$B$6:$D$22,COLUMNS($F$5:G7),0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H8" s="11" t="e">
-        <f>VLOOKUP($F8,$B$6:$D$22,COLUMNS($F$5:H7),0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G8" s="11" t="str">
+        <f>IFERROR(VLOOKUP($F8,$B$6:$D$22,COLUMNS($F$5:G7),0),"")</f>
+        <v/>
+      </c>
+      <c r="H8" s="11" t="str">
+        <f>IFERROR(VLOOKUP($F8,$B$6:$D$22,COLUMNS($F$5:H7),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
@@ -796,7 +789,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
@@ -807,7 +800,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -818,7 +811,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
@@ -829,7 +822,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
@@ -840,7 +833,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
@@ -851,7 +844,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
@@ -862,7 +855,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
@@ -873,7 +866,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
@@ -884,7 +877,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
@@ -895,7 +888,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
@@ -906,7 +899,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
@@ -917,7 +910,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
@@ -928,7 +921,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
